--- a/TestData/Userdata.xlsx
+++ b/TestData/Userdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidInputs" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -25,13 +25,70 @@
   </si>
   <si>
     <t>Results</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>anishapatel44@gmail.com</t>
+  </si>
+  <si>
+    <t>manojpatel@gmail.com</t>
+  </si>
+  <si>
+    <t>Manoj@123</t>
+  </si>
+  <si>
+    <t>anishapatel123</t>
+  </si>
+  <si>
+    <t>manishkoyla1@hotmail.com</t>
+  </si>
+  <si>
+    <t>Test@444</t>
+  </si>
+  <si>
+    <t>Anujkrishna@yahoo.com</t>
+  </si>
+  <si>
+    <t>Anuj@123</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>anjumohs10@gmail.com</t>
+  </si>
+  <si>
+    <t>anishapatel4@gmail.com</t>
+  </si>
+  <si>
+    <t>anishapatel7@gmail.com</t>
+  </si>
+  <si>
+    <t>anishapatel22@gmail.com</t>
+  </si>
+  <si>
+    <t>WrongPass</t>
+  </si>
+  <si>
+    <t>IncorrectPass</t>
+  </si>
+  <si>
+    <t>EnterPass</t>
+  </si>
+  <si>
+    <t>InvalidPass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +102,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -85,14 +149,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,20 +457,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,23 +479,156 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="A4" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
